--- a/curriculum-design/docs/cnk性能数据.xlsx
+++ b/curriculum-design/docs/cnk性能数据.xlsx
@@ -28,13 +28,13 @@
     <t>result</t>
   </si>
   <si>
-    <t>iteration</t>
+    <t>recursion</t>
   </si>
   <si>
     <t>memo</t>
   </si>
   <si>
-    <t>recursion</t>
+    <t>iteration</t>
   </si>
 </sst>
 </file>
@@ -71,10 +71,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,15 +133,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,78 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,11 +200,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -217,19 +217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +241,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,13 +271,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,109 +373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,11 +420,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,32 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,6 +485,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -513,145 +513,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -768,7 +768,7 @@
                 </a:solidFill>
                 <a:uFillTx/>
               </a:rPr>
-              <a:t>迭代算法</a:t>
+              <a:t>递归算法</a:t>
             </a:r>
             <a:endParaRPr altLang="en-US" sz="2400" b="1">
               <a:solidFill>
@@ -4703,8 +4703,8 @@
   <sheetPr/>
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:C78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
